--- a/output/StructureDefinition-slk581.xlsx
+++ b/output/StructureDefinition-slk581.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:49:36+10:00</t>
+    <t>2025-06-26T16:23:30+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -834,44 +834,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.55078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.63671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.10546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="162.5078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="145.7421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.3984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.81640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.2578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.49609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
